--- a/Code/Results/Cases/Case_3_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007163437579371</v>
+        <v>1.030314852683073</v>
       </c>
       <c r="D2">
-        <v>1.027705449395174</v>
+        <v>1.040630672165149</v>
       </c>
       <c r="E2">
-        <v>1.012652184264464</v>
+        <v>1.030038938321472</v>
       </c>
       <c r="F2">
-        <v>1.028507037416236</v>
+        <v>1.049332779181627</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048845844641449</v>
+        <v>1.038347399260381</v>
       </c>
       <c r="J2">
-        <v>1.029131982295235</v>
+        <v>1.035456778597277</v>
       </c>
       <c r="K2">
-        <v>1.038791839141715</v>
+        <v>1.043412474603123</v>
       </c>
       <c r="L2">
-        <v>1.023938023839507</v>
+        <v>1.032851106593954</v>
       </c>
       <c r="M2">
-        <v>1.039583011423164</v>
+        <v>1.052090130802789</v>
       </c>
       <c r="N2">
-        <v>1.013605810922832</v>
+        <v>1.01581936893066</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010994810027519</v>
+        <v>1.031122909739938</v>
       </c>
       <c r="D3">
-        <v>1.030793718034077</v>
+        <v>1.041306028644359</v>
       </c>
       <c r="E3">
-        <v>1.015666477591839</v>
+        <v>1.030721595259665</v>
       </c>
       <c r="F3">
-        <v>1.032499063797088</v>
+        <v>1.050240714774217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050137076841631</v>
+        <v>1.038560865243187</v>
       </c>
       <c r="J3">
-        <v>1.031190167790492</v>
+        <v>1.035906959674534</v>
       </c>
       <c r="K3">
-        <v>1.041047183804415</v>
+        <v>1.043898649231607</v>
       </c>
       <c r="L3">
-        <v>1.026102751621832</v>
+        <v>1.033342372624647</v>
       </c>
       <c r="M3">
-        <v>1.042732337185801</v>
+        <v>1.05281004412582</v>
       </c>
       <c r="N3">
-        <v>1.014294142226058</v>
+        <v>1.015969251711364</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013428025650587</v>
+        <v>1.031646311488617</v>
       </c>
       <c r="D4">
-        <v>1.03275696810668</v>
+        <v>1.041743444932579</v>
       </c>
       <c r="E4">
-        <v>1.017586459909165</v>
+        <v>1.031164169607592</v>
       </c>
       <c r="F4">
-        <v>1.035038892483421</v>
+        <v>1.050829169929479</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050946955023312</v>
+        <v>1.038697887169163</v>
       </c>
       <c r="J4">
-        <v>1.032494368465579</v>
+        <v>1.036198123807216</v>
       </c>
       <c r="K4">
-        <v>1.04247548854483</v>
+        <v>1.044212971293788</v>
       </c>
       <c r="L4">
-        <v>1.027477166059233</v>
+        <v>1.033660425454589</v>
       </c>
       <c r="M4">
-        <v>1.044732050183785</v>
+        <v>1.05327620269127</v>
       </c>
       <c r="N4">
-        <v>1.014730250865439</v>
+        <v>1.01606616502911</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014440285662212</v>
+        <v>1.031866475971954</v>
       </c>
       <c r="D5">
-        <v>1.033574150818411</v>
+        <v>1.041927432434479</v>
       </c>
       <c r="E5">
-        <v>1.018386534611207</v>
+        <v>1.031350429477989</v>
       </c>
       <c r="F5">
-        <v>1.036096590976548</v>
+        <v>1.051076784450203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051281408324257</v>
+        <v>1.038755225874004</v>
       </c>
       <c r="J5">
-        <v>1.033036216519128</v>
+        <v>1.03632049612302</v>
       </c>
       <c r="K5">
-        <v>1.043068694650784</v>
+        <v>1.044345047402572</v>
       </c>
       <c r="L5">
-        <v>1.028048834576661</v>
+        <v>1.033794174434312</v>
       </c>
       <c r="M5">
-        <v>1.045563856973889</v>
+        <v>1.05347225226578</v>
       </c>
       <c r="N5">
-        <v>1.014911421084031</v>
+        <v>1.016106889982332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01460963268322</v>
+        <v>1.031903449921188</v>
       </c>
       <c r="D6">
-        <v>1.033710886872774</v>
+        <v>1.041958330422861</v>
       </c>
       <c r="E6">
-        <v>1.018520461047212</v>
+        <v>1.031381715100313</v>
       </c>
       <c r="F6">
-        <v>1.036273603069787</v>
+        <v>1.051118373331623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051337214843532</v>
+        <v>1.038764837713188</v>
       </c>
       <c r="J6">
-        <v>1.033126822349834</v>
+        <v>1.03634104099783</v>
       </c>
       <c r="K6">
-        <v>1.043167876359173</v>
+        <v>1.044367219718444</v>
       </c>
       <c r="L6">
-        <v>1.028144465075064</v>
+        <v>1.033816633758134</v>
       </c>
       <c r="M6">
-        <v>1.045703007815892</v>
+        <v>1.053505174290756</v>
       </c>
       <c r="N6">
-        <v>1.014941714636399</v>
+        <v>1.016113726847686</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013441592987396</v>
+        <v>1.031649252842656</v>
       </c>
       <c r="D7">
-        <v>1.032767919140142</v>
+        <v>1.041745903000942</v>
       </c>
       <c r="E7">
-        <v>1.017597178118933</v>
+        <v>1.03116665763115</v>
       </c>
       <c r="F7">
-        <v>1.035053064564985</v>
+        <v>1.0508324776734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050951447504431</v>
+        <v>1.038698654375255</v>
       </c>
       <c r="J7">
-        <v>1.032501633747674</v>
+        <v>1.036199759083617</v>
       </c>
       <c r="K7">
-        <v>1.042483443258884</v>
+        <v>1.044214736357859</v>
       </c>
       <c r="L7">
-        <v>1.027484828617759</v>
+        <v>1.033662212461195</v>
       </c>
       <c r="M7">
-        <v>1.044743199363823</v>
+        <v>1.053278822016706</v>
       </c>
       <c r="N7">
-        <v>1.014732680127203</v>
+        <v>1.016066709266873</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008467985423962</v>
+        <v>1.030587827626033</v>
       </c>
       <c r="D8">
-        <v>1.028756544850624</v>
+        <v>1.040858824954103</v>
       </c>
       <c r="E8">
-        <v>1.013677315173233</v>
+        <v>1.030269468422931</v>
       </c>
       <c r="F8">
-        <v>1.029865317011376</v>
+        <v>1.049639420337355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049287603139651</v>
+        <v>1.038419769364344</v>
       </c>
       <c r="J8">
-        <v>1.029833368904418</v>
+        <v>1.035608946234741</v>
       </c>
       <c r="K8">
-        <v>1.039560584988368</v>
+        <v>1.043576833748285</v>
       </c>
       <c r="L8">
-        <v>1.02467515168207</v>
+        <v>1.033017096070309</v>
       </c>
       <c r="M8">
-        <v>1.040655386799647</v>
+        <v>1.052333360281904</v>
       </c>
       <c r="N8">
-        <v>1.013840391853384</v>
+        <v>1.015870036926159</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9993362708740853</v>
+        <v>1.028721629434727</v>
       </c>
       <c r="D9">
-        <v>1.021408726990419</v>
+        <v>1.03929894059892</v>
       </c>
       <c r="E9">
-        <v>1.006526896404401</v>
+        <v>1.028695093142135</v>
       </c>
       <c r="F9">
-        <v>1.020377513390336</v>
+        <v>1.047544537358237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046153799961285</v>
+        <v>1.037919912523615</v>
       </c>
       <c r="J9">
-        <v>1.024912488918283</v>
+        <v>1.034566892596365</v>
       </c>
       <c r="K9">
-        <v>1.034163755761397</v>
+        <v>1.042450794230134</v>
       </c>
       <c r="L9">
-        <v>1.019514959462658</v>
+        <v>1.031881686064854</v>
       </c>
       <c r="M9">
-        <v>1.033148410076748</v>
+        <v>1.050669909628968</v>
       </c>
       <c r="N9">
-        <v>1.012194401738703</v>
+        <v>1.015522951866767</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9929781154843957</v>
+        <v>1.027480397904096</v>
       </c>
       <c r="D10">
-        <v>1.016306694398158</v>
+        <v>1.038261315537718</v>
       </c>
       <c r="E10">
-        <v>1.001582133992559</v>
+        <v>1.027650045270154</v>
       </c>
       <c r="F10">
-        <v>1.01379760146794</v>
+        <v>1.046153060512207</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043920647549201</v>
+        <v>1.037581057941691</v>
       </c>
       <c r="J10">
-        <v>1.021473127107938</v>
+        <v>1.033871613054649</v>
       </c>
       <c r="K10">
-        <v>1.030387638618019</v>
+        <v>1.0416988541065</v>
       </c>
       <c r="L10">
-        <v>1.015922881158087</v>
+        <v>1.031125744948803</v>
       </c>
       <c r="M10">
-        <v>1.027922125922457</v>
+        <v>1.04956277133808</v>
       </c>
       <c r="N10">
-        <v>1.011043816960955</v>
+        <v>1.015291236242134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9901553002486788</v>
+        <v>1.026943639489754</v>
       </c>
       <c r="D11">
-        <v>1.01404545071389</v>
+        <v>1.037812579740736</v>
       </c>
       <c r="E11">
-        <v>0.9993954097287258</v>
+        <v>1.027198626440808</v>
       </c>
       <c r="F11">
-        <v>1.010882806637179</v>
+        <v>1.045551771689979</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042917562563246</v>
+        <v>1.037433008119195</v>
       </c>
       <c r="J11">
-        <v>1.01994344371771</v>
+        <v>1.033570427679792</v>
       </c>
       <c r="K11">
-        <v>1.028707263814678</v>
+        <v>1.041372976742191</v>
       </c>
       <c r="L11">
-        <v>1.014328736750325</v>
+        <v>1.030798667786003</v>
       </c>
       <c r="M11">
-        <v>1.025602366580513</v>
+        <v>1.049083822711439</v>
       </c>
       <c r="N11">
-        <v>1.010532078233939</v>
+        <v>1.015190829121604</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9890958064163567</v>
+        <v>1.026744370785342</v>
       </c>
       <c r="D12">
-        <v>1.013197367663265</v>
+        <v>1.037645985625314</v>
       </c>
       <c r="E12">
-        <v>0.9985760014787356</v>
+        <v>1.02703111555762</v>
       </c>
       <c r="F12">
-        <v>1.00978978623414</v>
+        <v>1.045328612915767</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042539367523337</v>
+        <v>1.037377817772978</v>
       </c>
       <c r="J12">
-        <v>1.019368929687135</v>
+        <v>1.033458536500384</v>
       </c>
       <c r="K12">
-        <v>1.028076020621816</v>
+        <v>1.041251890308372</v>
       </c>
       <c r="L12">
-        <v>1.013730533997788</v>
+        <v>1.030677215725524</v>
       </c>
       <c r="M12">
-        <v>1.024731802439877</v>
+        <v>1.048905989070161</v>
       </c>
       <c r="N12">
-        <v>1.01033988224477</v>
+        <v>1.015153522963823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9893235764919495</v>
+        <v>1.02678710971821</v>
       </c>
       <c r="D13">
-        <v>1.013379659121483</v>
+        <v>1.037681716692667</v>
       </c>
       <c r="E13">
-        <v>0.9987520965606411</v>
+        <v>1.027067039661681</v>
       </c>
       <c r="F13">
-        <v>1.010024718434298</v>
+        <v>1.04537647275282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042620748250499</v>
+        <v>1.037389665238945</v>
       </c>
       <c r="J13">
-        <v>1.019492455123878</v>
+        <v>1.033482538311455</v>
       </c>
       <c r="K13">
-        <v>1.028211749241402</v>
+        <v>1.041277865596413</v>
       </c>
       <c r="L13">
-        <v>1.013859129128253</v>
+        <v>1.030703265820023</v>
       </c>
       <c r="M13">
-        <v>1.024918950546848</v>
+        <v>1.048944131831567</v>
       </c>
       <c r="N13">
-        <v>1.010381205928483</v>
+        <v>1.015161525728547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9900679490577149</v>
+        <v>1.026927165678675</v>
       </c>
       <c r="D14">
-        <v>1.013975516325755</v>
+        <v>1.037798807247484</v>
       </c>
       <c r="E14">
-        <v>0.999327825128785</v>
+        <v>1.027184776538518</v>
       </c>
       <c r="F14">
-        <v>1.010792670907954</v>
+        <v>1.045533321497163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042886416246347</v>
+        <v>1.0374284501035</v>
       </c>
       <c r="J14">
-        <v>1.019896084658837</v>
+        <v>1.03356117907036</v>
       </c>
       <c r="K14">
-        <v>1.028655231060539</v>
+        <v>1.041362968529853</v>
       </c>
       <c r="L14">
-        <v>1.014279414344502</v>
+        <v>1.030788627718194</v>
       </c>
       <c r="M14">
-        <v>1.025530589338068</v>
+        <v>1.04906912150582</v>
       </c>
       <c r="N14">
-        <v>1.010516234852443</v>
+        <v>1.015187745594242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9905251117364626</v>
+        <v>1.027013473041966</v>
       </c>
       <c r="D15">
-        <v>1.014341552320003</v>
+        <v>1.037870962097414</v>
       </c>
       <c r="E15">
-        <v>0.9996815919913972</v>
+        <v>1.027257340188165</v>
       </c>
       <c r="F15">
-        <v>1.011264447571639</v>
+        <v>1.045629985977162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043049354877252</v>
+        <v>1.037452320518951</v>
       </c>
       <c r="J15">
-        <v>1.02014392877133</v>
+        <v>1.03360962995221</v>
       </c>
       <c r="K15">
-        <v>1.028927528627114</v>
+        <v>1.041415397853836</v>
       </c>
       <c r="L15">
-        <v>1.014537554504654</v>
+        <v>1.030841227204063</v>
       </c>
       <c r="M15">
-        <v>1.025906248901038</v>
+        <v>1.049146140989233</v>
       </c>
       <c r="N15">
-        <v>1.010599148073438</v>
+        <v>1.01520389914308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9931639457563409</v>
+        <v>1.027516035744894</v>
       </c>
       <c r="D16">
-        <v>1.016455640939423</v>
+        <v>1.038291108663858</v>
       </c>
       <c r="E16">
-        <v>1.001726272743691</v>
+        <v>1.02768002765321</v>
       </c>
       <c r="F16">
-        <v>1.013989623913083</v>
+        <v>1.046192992144231</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043986443074735</v>
+        <v>1.037590855703224</v>
       </c>
       <c r="J16">
-        <v>1.021573774666773</v>
+        <v>1.033891599212012</v>
       </c>
       <c r="K16">
-        <v>1.03049818241086</v>
+        <v>1.041720475680447</v>
       </c>
       <c r="L16">
-        <v>1.016027842273184</v>
+        <v>1.031147457372458</v>
       </c>
       <c r="M16">
-        <v>1.028074853489833</v>
+        <v>1.049594567194656</v>
       </c>
       <c r="N16">
-        <v>1.011077487549245</v>
+        <v>1.015297898437669</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.994800211547141</v>
+        <v>1.027831469434273</v>
       </c>
       <c r="D17">
-        <v>1.017767589294369</v>
+        <v>1.038554807427419</v>
       </c>
       <c r="E17">
-        <v>1.002996423129267</v>
+        <v>1.027945462472103</v>
       </c>
       <c r="F17">
-        <v>1.015681153585882</v>
+        <v>1.046546481639606</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044564461782844</v>
+        <v>1.037677401375009</v>
       </c>
       <c r="J17">
-        <v>1.022459686961673</v>
+        <v>1.034068438543158</v>
       </c>
       <c r="K17">
-        <v>1.031471098724927</v>
+        <v>1.041911768303664</v>
       </c>
       <c r="L17">
-        <v>1.016952117384475</v>
+        <v>1.031339615441482</v>
       </c>
       <c r="M17">
-        <v>1.02941971049163</v>
+        <v>1.049875974639393</v>
       </c>
       <c r="N17">
-        <v>1.011373859736093</v>
+        <v>1.015356842554274</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9957479290340051</v>
+        <v>1.028015524290103</v>
       </c>
       <c r="D18">
-        <v>1.018527830374452</v>
+        <v>1.038708672626748</v>
       </c>
       <c r="E18">
-        <v>1.003732901480871</v>
+        <v>1.028100391523405</v>
       </c>
       <c r="F18">
-        <v>1.016661493336655</v>
+        <v>1.046752784615545</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044898138334271</v>
+        <v>1.037727754243881</v>
       </c>
       <c r="J18">
-        <v>1.022972542548886</v>
+        <v>1.034171573815199</v>
       </c>
       <c r="K18">
-        <v>1.032034233646933</v>
+        <v>1.042023318723517</v>
       </c>
       <c r="L18">
-        <v>1.017487509782665</v>
+        <v>1.031451722054618</v>
       </c>
       <c r="M18">
-        <v>1.030198694471202</v>
+        <v>1.050040158105295</v>
       </c>
       <c r="N18">
-        <v>1.011545429088418</v>
+        <v>1.015391216613505</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9960699565100382</v>
+        <v>1.028078293676188</v>
       </c>
       <c r="D19">
-        <v>1.018786215489333</v>
+        <v>1.038761145817201</v>
       </c>
       <c r="E19">
-        <v>1.00398328793741</v>
+        <v>1.028153236149924</v>
       </c>
       <c r="F19">
-        <v>1.016994709024633</v>
+        <v>1.046823148646663</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045011329761258</v>
+        <v>1.037744901576812</v>
       </c>
       <c r="J19">
-        <v>1.023146761917605</v>
+        <v>1.034206738185157</v>
       </c>
       <c r="K19">
-        <v>1.032225518169333</v>
+        <v>1.042061349857235</v>
       </c>
       <c r="L19">
-        <v>1.017669440699854</v>
+        <v>1.031489951552879</v>
       </c>
       <c r="M19">
-        <v>1.030463394836317</v>
+        <v>1.05009614771211</v>
       </c>
       <c r="N19">
-        <v>1.011603711763554</v>
+        <v>1.015402936070645</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9946253511011188</v>
+        <v>1.02779761936799</v>
       </c>
       <c r="D20">
-        <v>1.017627348825116</v>
+        <v>1.038526509429458</v>
       </c>
       <c r="E20">
-        <v>1.002860603121002</v>
+        <v>1.027916972911534</v>
       </c>
       <c r="F20">
-        <v>1.015500323520363</v>
+        <v>1.04650854328793</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04450280622738</v>
+        <v>1.037668129052255</v>
       </c>
       <c r="J20">
-        <v>1.022365040252562</v>
+        <v>1.034049466601122</v>
       </c>
       <c r="K20">
-        <v>1.031367165946268</v>
+        <v>1.041891247232814</v>
       </c>
       <c r="L20">
-        <v>1.016853338082265</v>
+        <v>1.031318996200586</v>
       </c>
       <c r="M20">
-        <v>1.029275986268151</v>
+        <v>1.049845777796743</v>
       </c>
       <c r="N20">
-        <v>1.011342196792271</v>
+        <v>1.015350519134078</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9898490570433054</v>
+        <v>1.026885919714707</v>
       </c>
       <c r="D21">
-        <v>1.013800279213989</v>
+        <v>1.037764324599658</v>
       </c>
       <c r="E21">
-        <v>0.9991584876786243</v>
+        <v>1.027150101360961</v>
       </c>
       <c r="F21">
-        <v>1.010566817299995</v>
+        <v>1.045487128283144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042808339846576</v>
+        <v>1.037417034388312</v>
       </c>
       <c r="J21">
-        <v>1.019777402401739</v>
+        <v>1.033538021800795</v>
       </c>
       <c r="K21">
-        <v>1.028524834353267</v>
+        <v>1.041337908960047</v>
       </c>
       <c r="L21">
-        <v>1.014155820326365</v>
+        <v>1.030763489680412</v>
       </c>
       <c r="M21">
-        <v>1.025350725843566</v>
+        <v>1.049032313238319</v>
       </c>
       <c r="N21">
-        <v>1.010476531216004</v>
+        <v>1.015180024783118</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9867822438117316</v>
+        <v>1.026313319404869</v>
       </c>
       <c r="D22">
-        <v>1.011346675297578</v>
+        <v>1.037285609169547</v>
       </c>
       <c r="E22">
-        <v>0.9967892205158816</v>
+        <v>1.026668901093365</v>
       </c>
       <c r="F22">
-        <v>1.007404871706853</v>
+        <v>1.044846005066271</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041710438672644</v>
+        <v>1.037258015745963</v>
       </c>
       <c r="J22">
-        <v>1.01811374315459</v>
+        <v>1.03321635538903</v>
       </c>
       <c r="K22">
-        <v>1.026696654486392</v>
+        <v>1.040989766267667</v>
       </c>
       <c r="L22">
-        <v>1.012424553047703</v>
+        <v>1.030414446767044</v>
       </c>
       <c r="M22">
-        <v>1.022831050188948</v>
+        <v>1.048521256999683</v>
       </c>
       <c r="N22">
-        <v>1.009919981522448</v>
+        <v>1.015072767788021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884142403352534</v>
+        <v>1.026616806206283</v>
       </c>
       <c r="D23">
-        <v>1.012651986144939</v>
+        <v>1.037539337241802</v>
       </c>
       <c r="E23">
-        <v>0.998049264958692</v>
+        <v>1.026923902630376</v>
       </c>
       <c r="F23">
-        <v>1.009086936519441</v>
+        <v>1.045185773519665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042295602132556</v>
+        <v>1.037342422846476</v>
       </c>
       <c r="J23">
-        <v>1.018999247084691</v>
+        <v>1.033386885984056</v>
       </c>
       <c r="K23">
-        <v>1.027669797661992</v>
+        <v>1.041174345307619</v>
       </c>
       <c r="L23">
-        <v>1.013345755519601</v>
+        <v>1.030599459138372</v>
       </c>
       <c r="M23">
-        <v>1.024171811064222</v>
+        <v>1.048792138995352</v>
       </c>
       <c r="N23">
-        <v>1.010216210554843</v>
+        <v>1.015129632330508</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9947043836435453</v>
+        <v>1.027812914546834</v>
       </c>
       <c r="D24">
-        <v>1.017690732872153</v>
+        <v>1.038539295909509</v>
       </c>
       <c r="E24">
-        <v>1.002921987846566</v>
+        <v>1.027929845792169</v>
       </c>
       <c r="F24">
-        <v>1.015582052281017</v>
+        <v>1.046525685629995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044530676435516</v>
+        <v>1.037672319210626</v>
       </c>
       <c r="J24">
-        <v>1.022407819005264</v>
+        <v>1.034058039242682</v>
       </c>
       <c r="K24">
-        <v>1.031414142120641</v>
+        <v>1.041900519906023</v>
       </c>
       <c r="L24">
-        <v>1.01689798368054</v>
+        <v>1.031328313073823</v>
       </c>
       <c r="M24">
-        <v>1.029340945868237</v>
+        <v>1.049859422316649</v>
       </c>
       <c r="N24">
-        <v>1.01135650792381</v>
+        <v>1.015353376437304</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00174290755219</v>
+        <v>1.029203582319654</v>
       </c>
       <c r="D25">
-        <v>1.023342975380496</v>
+        <v>1.039701810813525</v>
       </c>
       <c r="E25">
-        <v>1.008405693488128</v>
+        <v>1.029101315281616</v>
       </c>
       <c r="F25">
-        <v>1.022873557168017</v>
+        <v>1.048085222030495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046988705309186</v>
+        <v>1.038050131023289</v>
       </c>
       <c r="J25">
-        <v>1.026211757936828</v>
+        <v>1.034836395453075</v>
       </c>
       <c r="K25">
-        <v>1.03558941520758</v>
+        <v>1.042742128092722</v>
       </c>
       <c r="L25">
-        <v>1.020874908377851</v>
+        <v>1.03217504651884</v>
       </c>
       <c r="M25">
-        <v>1.035126872211087</v>
+        <v>1.05109963636027</v>
       </c>
       <c r="N25">
-        <v>1.012629030495903</v>
+        <v>1.015612740979615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030314852683073</v>
+        <v>1.007163437579369</v>
       </c>
       <c r="D2">
-        <v>1.040630672165149</v>
+        <v>1.027705449395173</v>
       </c>
       <c r="E2">
-        <v>1.030038938321472</v>
+        <v>1.012652184264463</v>
       </c>
       <c r="F2">
-        <v>1.049332779181627</v>
+        <v>1.028507037416235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038347399260381</v>
+        <v>1.048845844641448</v>
       </c>
       <c r="J2">
-        <v>1.035456778597277</v>
+        <v>1.029131982295233</v>
       </c>
       <c r="K2">
-        <v>1.043412474603123</v>
+        <v>1.038791839141713</v>
       </c>
       <c r="L2">
-        <v>1.032851106593954</v>
+        <v>1.023938023839506</v>
       </c>
       <c r="M2">
-        <v>1.052090130802789</v>
+        <v>1.039583011423163</v>
       </c>
       <c r="N2">
-        <v>1.01581936893066</v>
+        <v>1.013605810922831</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031122909739938</v>
+        <v>1.010994810027519</v>
       </c>
       <c r="D3">
-        <v>1.041306028644359</v>
+        <v>1.030793718034076</v>
       </c>
       <c r="E3">
-        <v>1.030721595259665</v>
+        <v>1.015666477591838</v>
       </c>
       <c r="F3">
-        <v>1.050240714774217</v>
+        <v>1.032499063797087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038560865243187</v>
+        <v>1.05013707684163</v>
       </c>
       <c r="J3">
-        <v>1.035906959674534</v>
+        <v>1.031190167790492</v>
       </c>
       <c r="K3">
-        <v>1.043898649231607</v>
+        <v>1.041047183804414</v>
       </c>
       <c r="L3">
-        <v>1.033342372624647</v>
+        <v>1.026102751621831</v>
       </c>
       <c r="M3">
-        <v>1.05281004412582</v>
+        <v>1.0427323371858</v>
       </c>
       <c r="N3">
-        <v>1.015969251711364</v>
+        <v>1.014294142226058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031646311488617</v>
+        <v>1.013428025650587</v>
       </c>
       <c r="D4">
-        <v>1.041743444932579</v>
+        <v>1.03275696810668</v>
       </c>
       <c r="E4">
-        <v>1.031164169607592</v>
+        <v>1.017586459909165</v>
       </c>
       <c r="F4">
-        <v>1.050829169929479</v>
+        <v>1.035038892483421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038697887169163</v>
+        <v>1.050946955023312</v>
       </c>
       <c r="J4">
-        <v>1.036198123807216</v>
+        <v>1.032494368465579</v>
       </c>
       <c r="K4">
-        <v>1.044212971293788</v>
+        <v>1.042475488544831</v>
       </c>
       <c r="L4">
-        <v>1.033660425454589</v>
+        <v>1.027477166059233</v>
       </c>
       <c r="M4">
-        <v>1.05327620269127</v>
+        <v>1.044732050183785</v>
       </c>
       <c r="N4">
-        <v>1.01606616502911</v>
+        <v>1.014730250865439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031866475971954</v>
+        <v>1.014440285662211</v>
       </c>
       <c r="D5">
-        <v>1.041927432434479</v>
+        <v>1.03357415081841</v>
       </c>
       <c r="E5">
-        <v>1.031350429477989</v>
+        <v>1.018386534611207</v>
       </c>
       <c r="F5">
-        <v>1.051076784450203</v>
+        <v>1.036096590976548</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038755225874004</v>
+        <v>1.051281408324257</v>
       </c>
       <c r="J5">
-        <v>1.03632049612302</v>
+        <v>1.033036216519128</v>
       </c>
       <c r="K5">
-        <v>1.044345047402572</v>
+        <v>1.043068694650783</v>
       </c>
       <c r="L5">
-        <v>1.033794174434312</v>
+        <v>1.028048834576661</v>
       </c>
       <c r="M5">
-        <v>1.05347225226578</v>
+        <v>1.045563856973888</v>
       </c>
       <c r="N5">
-        <v>1.016106889982332</v>
+        <v>1.014911421084031</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031903449921188</v>
+        <v>1.01460963268322</v>
       </c>
       <c r="D6">
-        <v>1.041958330422861</v>
+        <v>1.033710886872775</v>
       </c>
       <c r="E6">
-        <v>1.031381715100313</v>
+        <v>1.018520461047212</v>
       </c>
       <c r="F6">
-        <v>1.051118373331623</v>
+        <v>1.036273603069787</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038764837713188</v>
+        <v>1.051337214843533</v>
       </c>
       <c r="J6">
-        <v>1.03634104099783</v>
+        <v>1.033126822349834</v>
       </c>
       <c r="K6">
-        <v>1.044367219718444</v>
+        <v>1.043167876359174</v>
       </c>
       <c r="L6">
-        <v>1.033816633758134</v>
+        <v>1.028144465075064</v>
       </c>
       <c r="M6">
-        <v>1.053505174290756</v>
+        <v>1.045703007815893</v>
       </c>
       <c r="N6">
-        <v>1.016113726847686</v>
+        <v>1.014941714636399</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031649252842656</v>
+        <v>1.013441592987397</v>
       </c>
       <c r="D7">
-        <v>1.041745903000942</v>
+        <v>1.032767919140143</v>
       </c>
       <c r="E7">
-        <v>1.03116665763115</v>
+        <v>1.017597178118933</v>
       </c>
       <c r="F7">
-        <v>1.0508324776734</v>
+        <v>1.035053064564986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038698654375255</v>
+        <v>1.050951447504432</v>
       </c>
       <c r="J7">
-        <v>1.036199759083617</v>
+        <v>1.032501633747675</v>
       </c>
       <c r="K7">
-        <v>1.044214736357859</v>
+        <v>1.042483443258884</v>
       </c>
       <c r="L7">
-        <v>1.033662212461195</v>
+        <v>1.02748482861776</v>
       </c>
       <c r="M7">
-        <v>1.053278822016706</v>
+        <v>1.044743199363824</v>
       </c>
       <c r="N7">
-        <v>1.016066709266873</v>
+        <v>1.014732680127203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030587827626033</v>
+        <v>1.008467985423962</v>
       </c>
       <c r="D8">
-        <v>1.040858824954103</v>
+        <v>1.028756544850624</v>
       </c>
       <c r="E8">
-        <v>1.030269468422931</v>
+        <v>1.013677315173233</v>
       </c>
       <c r="F8">
-        <v>1.049639420337355</v>
+        <v>1.029865317011377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038419769364344</v>
+        <v>1.049287603139651</v>
       </c>
       <c r="J8">
-        <v>1.035608946234741</v>
+        <v>1.029833368904418</v>
       </c>
       <c r="K8">
-        <v>1.043576833748285</v>
+        <v>1.039560584988368</v>
       </c>
       <c r="L8">
-        <v>1.033017096070309</v>
+        <v>1.024675151682071</v>
       </c>
       <c r="M8">
-        <v>1.052333360281904</v>
+        <v>1.040655386799647</v>
       </c>
       <c r="N8">
-        <v>1.015870036926159</v>
+        <v>1.013840391853384</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028721629434727</v>
+        <v>0.9993362708740847</v>
       </c>
       <c r="D9">
-        <v>1.03929894059892</v>
+        <v>1.021408726990418</v>
       </c>
       <c r="E9">
-        <v>1.028695093142135</v>
+        <v>1.006526896404401</v>
       </c>
       <c r="F9">
-        <v>1.047544537358237</v>
+        <v>1.020377513390335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037919912523615</v>
+        <v>1.046153799961285</v>
       </c>
       <c r="J9">
-        <v>1.034566892596365</v>
+        <v>1.024912488918283</v>
       </c>
       <c r="K9">
-        <v>1.042450794230134</v>
+        <v>1.034163755761397</v>
       </c>
       <c r="L9">
-        <v>1.031881686064854</v>
+        <v>1.019514959462658</v>
       </c>
       <c r="M9">
-        <v>1.050669909628968</v>
+        <v>1.033148410076747</v>
       </c>
       <c r="N9">
-        <v>1.015522951866767</v>
+        <v>1.012194401738703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027480397904096</v>
+        <v>0.9929781154843959</v>
       </c>
       <c r="D10">
-        <v>1.038261315537718</v>
+        <v>1.016306694398158</v>
       </c>
       <c r="E10">
-        <v>1.027650045270154</v>
+        <v>1.00158213399256</v>
       </c>
       <c r="F10">
-        <v>1.046153060512207</v>
+        <v>1.01379760146794</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037581057941691</v>
+        <v>1.043920647549201</v>
       </c>
       <c r="J10">
-        <v>1.033871613054649</v>
+        <v>1.021473127107938</v>
       </c>
       <c r="K10">
-        <v>1.0416988541065</v>
+        <v>1.030387638618019</v>
       </c>
       <c r="L10">
-        <v>1.031125744948803</v>
+        <v>1.015922881158087</v>
       </c>
       <c r="M10">
-        <v>1.04956277133808</v>
+        <v>1.027922125922457</v>
       </c>
       <c r="N10">
-        <v>1.015291236242134</v>
+        <v>1.011043816960956</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026943639489754</v>
+        <v>0.9901553002486786</v>
       </c>
       <c r="D11">
-        <v>1.037812579740736</v>
+        <v>1.01404545071389</v>
       </c>
       <c r="E11">
-        <v>1.027198626440808</v>
+        <v>0.9993954097287255</v>
       </c>
       <c r="F11">
-        <v>1.045551771689979</v>
+        <v>1.010882806637178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037433008119195</v>
+        <v>1.042917562563245</v>
       </c>
       <c r="J11">
-        <v>1.033570427679792</v>
+        <v>1.01994344371771</v>
       </c>
       <c r="K11">
-        <v>1.041372976742191</v>
+        <v>1.028707263814677</v>
       </c>
       <c r="L11">
-        <v>1.030798667786003</v>
+        <v>1.014328736750325</v>
       </c>
       <c r="M11">
-        <v>1.049083822711439</v>
+        <v>1.025602366580512</v>
       </c>
       <c r="N11">
-        <v>1.015190829121604</v>
+        <v>1.010532078233939</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026744370785342</v>
+        <v>0.9890958064163563</v>
       </c>
       <c r="D12">
-        <v>1.037645985625314</v>
+        <v>1.013197367663264</v>
       </c>
       <c r="E12">
-        <v>1.02703111555762</v>
+        <v>0.9985760014787355</v>
       </c>
       <c r="F12">
-        <v>1.045328612915767</v>
+        <v>1.009789786234139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037377817772978</v>
+        <v>1.042539367523336</v>
       </c>
       <c r="J12">
-        <v>1.033458536500384</v>
+        <v>1.019368929687134</v>
       </c>
       <c r="K12">
-        <v>1.041251890308372</v>
+        <v>1.028076020621815</v>
       </c>
       <c r="L12">
-        <v>1.030677215725524</v>
+        <v>1.013730533997788</v>
       </c>
       <c r="M12">
-        <v>1.048905989070161</v>
+        <v>1.024731802439877</v>
       </c>
       <c r="N12">
-        <v>1.015153522963823</v>
+        <v>1.01033988224477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02678710971821</v>
+        <v>0.9893235764919498</v>
       </c>
       <c r="D13">
-        <v>1.037681716692667</v>
+        <v>1.013379659121483</v>
       </c>
       <c r="E13">
-        <v>1.027067039661681</v>
+        <v>0.998752096560641</v>
       </c>
       <c r="F13">
-        <v>1.04537647275282</v>
+        <v>1.010024718434297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037389665238945</v>
+        <v>1.042620748250499</v>
       </c>
       <c r="J13">
-        <v>1.033482538311455</v>
+        <v>1.019492455123878</v>
       </c>
       <c r="K13">
-        <v>1.041277865596413</v>
+        <v>1.028211749241403</v>
       </c>
       <c r="L13">
-        <v>1.030703265820023</v>
+        <v>1.013859129128253</v>
       </c>
       <c r="M13">
-        <v>1.048944131831567</v>
+        <v>1.024918950546848</v>
       </c>
       <c r="N13">
-        <v>1.015161525728547</v>
+        <v>1.010381205928483</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026927165678675</v>
+        <v>0.990067949057715</v>
       </c>
       <c r="D14">
-        <v>1.037798807247484</v>
+        <v>1.013975516325756</v>
       </c>
       <c r="E14">
-        <v>1.027184776538518</v>
+        <v>0.999327825128785</v>
       </c>
       <c r="F14">
-        <v>1.045533321497163</v>
+        <v>1.010792670907954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0374284501035</v>
+        <v>1.042886416246347</v>
       </c>
       <c r="J14">
-        <v>1.03356117907036</v>
+        <v>1.019896084658837</v>
       </c>
       <c r="K14">
-        <v>1.041362968529853</v>
+        <v>1.028655231060539</v>
       </c>
       <c r="L14">
-        <v>1.030788627718194</v>
+        <v>1.014279414344502</v>
       </c>
       <c r="M14">
-        <v>1.04906912150582</v>
+        <v>1.025530589338068</v>
       </c>
       <c r="N14">
-        <v>1.015187745594242</v>
+        <v>1.010516234852443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027013473041966</v>
+        <v>0.9905251117364628</v>
       </c>
       <c r="D15">
-        <v>1.037870962097414</v>
+        <v>1.014341552320003</v>
       </c>
       <c r="E15">
-        <v>1.027257340188165</v>
+        <v>0.9996815919913974</v>
       </c>
       <c r="F15">
-        <v>1.045629985977162</v>
+        <v>1.011264447571639</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037452320518951</v>
+        <v>1.043049354877252</v>
       </c>
       <c r="J15">
-        <v>1.03360962995221</v>
+        <v>1.02014392877133</v>
       </c>
       <c r="K15">
-        <v>1.041415397853836</v>
+        <v>1.028927528627114</v>
       </c>
       <c r="L15">
-        <v>1.030841227204063</v>
+        <v>1.014537554504654</v>
       </c>
       <c r="M15">
-        <v>1.049146140989233</v>
+        <v>1.025906248901038</v>
       </c>
       <c r="N15">
-        <v>1.01520389914308</v>
+        <v>1.010599148073438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027516035744894</v>
+        <v>0.9931639457563398</v>
       </c>
       <c r="D16">
-        <v>1.038291108663858</v>
+        <v>1.016455640939422</v>
       </c>
       <c r="E16">
-        <v>1.02768002765321</v>
+        <v>1.00172627274369</v>
       </c>
       <c r="F16">
-        <v>1.046192992144231</v>
+        <v>1.013989623913081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037590855703224</v>
+        <v>1.043986443074735</v>
       </c>
       <c r="J16">
-        <v>1.033891599212012</v>
+        <v>1.021573774666772</v>
       </c>
       <c r="K16">
-        <v>1.041720475680447</v>
+        <v>1.030498182410859</v>
       </c>
       <c r="L16">
-        <v>1.031147457372458</v>
+        <v>1.016027842273183</v>
       </c>
       <c r="M16">
-        <v>1.049594567194656</v>
+        <v>1.028074853489832</v>
       </c>
       <c r="N16">
-        <v>1.015297898437669</v>
+        <v>1.011077487549244</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027831469434273</v>
+        <v>0.9948002115471408</v>
       </c>
       <c r="D17">
-        <v>1.038554807427419</v>
+        <v>1.017767589294369</v>
       </c>
       <c r="E17">
-        <v>1.027945462472103</v>
+        <v>1.002996423129266</v>
       </c>
       <c r="F17">
-        <v>1.046546481639606</v>
+        <v>1.015681153585882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037677401375009</v>
+        <v>1.044564461782843</v>
       </c>
       <c r="J17">
-        <v>1.034068438543158</v>
+        <v>1.022459686961672</v>
       </c>
       <c r="K17">
-        <v>1.041911768303664</v>
+        <v>1.031471098724927</v>
       </c>
       <c r="L17">
-        <v>1.031339615441482</v>
+        <v>1.016952117384475</v>
       </c>
       <c r="M17">
-        <v>1.049875974639393</v>
+        <v>1.02941971049163</v>
       </c>
       <c r="N17">
-        <v>1.015356842554274</v>
+        <v>1.011373859736093</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028015524290103</v>
+        <v>0.9957479290340048</v>
       </c>
       <c r="D18">
-        <v>1.038708672626748</v>
+        <v>1.018527830374451</v>
       </c>
       <c r="E18">
-        <v>1.028100391523405</v>
+        <v>1.003732901480871</v>
       </c>
       <c r="F18">
-        <v>1.046752784615545</v>
+        <v>1.016661493336655</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037727754243881</v>
+        <v>1.04489813833427</v>
       </c>
       <c r="J18">
-        <v>1.034171573815199</v>
+        <v>1.022972542548886</v>
       </c>
       <c r="K18">
-        <v>1.042023318723517</v>
+        <v>1.032034233646932</v>
       </c>
       <c r="L18">
-        <v>1.031451722054618</v>
+        <v>1.017487509782665</v>
       </c>
       <c r="M18">
-        <v>1.050040158105295</v>
+        <v>1.030198694471201</v>
       </c>
       <c r="N18">
-        <v>1.015391216613505</v>
+        <v>1.011545429088418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028078293676188</v>
+        <v>0.9960699565100383</v>
       </c>
       <c r="D19">
-        <v>1.038761145817201</v>
+        <v>1.018786215489333</v>
       </c>
       <c r="E19">
-        <v>1.028153236149924</v>
+        <v>1.00398328793741</v>
       </c>
       <c r="F19">
-        <v>1.046823148646663</v>
+        <v>1.016994709024633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037744901576812</v>
+        <v>1.045011329761258</v>
       </c>
       <c r="J19">
-        <v>1.034206738185157</v>
+        <v>1.023146761917605</v>
       </c>
       <c r="K19">
-        <v>1.042061349857235</v>
+        <v>1.032225518169333</v>
       </c>
       <c r="L19">
-        <v>1.031489951552879</v>
+        <v>1.017669440699854</v>
       </c>
       <c r="M19">
-        <v>1.05009614771211</v>
+        <v>1.030463394836318</v>
       </c>
       <c r="N19">
-        <v>1.015402936070645</v>
+        <v>1.011603711763554</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02779761936799</v>
+        <v>0.994625351101119</v>
       </c>
       <c r="D20">
-        <v>1.038526509429458</v>
+        <v>1.017627348825116</v>
       </c>
       <c r="E20">
-        <v>1.027916972911534</v>
+        <v>1.002860603121002</v>
       </c>
       <c r="F20">
-        <v>1.04650854328793</v>
+        <v>1.015500323520363</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037668129052255</v>
+        <v>1.04450280622738</v>
       </c>
       <c r="J20">
-        <v>1.034049466601122</v>
+        <v>1.022365040252562</v>
       </c>
       <c r="K20">
-        <v>1.041891247232814</v>
+        <v>1.031367165946268</v>
       </c>
       <c r="L20">
-        <v>1.031318996200586</v>
+        <v>1.016853338082265</v>
       </c>
       <c r="M20">
-        <v>1.049845777796743</v>
+        <v>1.029275986268151</v>
       </c>
       <c r="N20">
-        <v>1.015350519134078</v>
+        <v>1.011342196792271</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026885919714707</v>
+        <v>0.9898490570433048</v>
       </c>
       <c r="D21">
-        <v>1.037764324599658</v>
+        <v>1.013800279213989</v>
       </c>
       <c r="E21">
-        <v>1.027150101360961</v>
+        <v>0.9991584876786235</v>
       </c>
       <c r="F21">
-        <v>1.045487128283144</v>
+        <v>1.010566817299995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037417034388312</v>
+        <v>1.042808339846575</v>
       </c>
       <c r="J21">
-        <v>1.033538021800795</v>
+        <v>1.019777402401739</v>
       </c>
       <c r="K21">
-        <v>1.041337908960047</v>
+        <v>1.028524834353266</v>
       </c>
       <c r="L21">
-        <v>1.030763489680412</v>
+        <v>1.014155820326364</v>
       </c>
       <c r="M21">
-        <v>1.049032313238319</v>
+        <v>1.025350725843566</v>
       </c>
       <c r="N21">
-        <v>1.015180024783118</v>
+        <v>1.010476531216004</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026313319404869</v>
+        <v>0.9867822438117309</v>
       </c>
       <c r="D22">
-        <v>1.037285609169547</v>
+        <v>1.011346675297577</v>
       </c>
       <c r="E22">
-        <v>1.026668901093365</v>
+        <v>0.9967892205158807</v>
       </c>
       <c r="F22">
-        <v>1.044846005066271</v>
+        <v>1.007404871706852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037258015745963</v>
+        <v>1.041710438672643</v>
       </c>
       <c r="J22">
-        <v>1.03321635538903</v>
+        <v>1.018113743154589</v>
       </c>
       <c r="K22">
-        <v>1.040989766267667</v>
+        <v>1.026696654486391</v>
       </c>
       <c r="L22">
-        <v>1.030414446767044</v>
+        <v>1.012424553047702</v>
       </c>
       <c r="M22">
-        <v>1.048521256999683</v>
+        <v>1.022831050188947</v>
       </c>
       <c r="N22">
-        <v>1.015072767788021</v>
+        <v>1.009919981522448</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026616806206283</v>
+        <v>0.9884142403352533</v>
       </c>
       <c r="D23">
-        <v>1.037539337241802</v>
+        <v>1.012651986144939</v>
       </c>
       <c r="E23">
-        <v>1.026923902630376</v>
+        <v>0.998049264958692</v>
       </c>
       <c r="F23">
-        <v>1.045185773519665</v>
+        <v>1.009086936519441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037342422846476</v>
+        <v>1.042295602132556</v>
       </c>
       <c r="J23">
-        <v>1.033386885984056</v>
+        <v>1.01899924708469</v>
       </c>
       <c r="K23">
-        <v>1.041174345307619</v>
+        <v>1.027669797661992</v>
       </c>
       <c r="L23">
-        <v>1.030599459138372</v>
+        <v>1.013345755519601</v>
       </c>
       <c r="M23">
-        <v>1.048792138995352</v>
+        <v>1.024171811064222</v>
       </c>
       <c r="N23">
-        <v>1.015129632330508</v>
+        <v>1.010216210554843</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027812914546834</v>
+        <v>0.9947043836435444</v>
       </c>
       <c r="D24">
-        <v>1.038539295909509</v>
+        <v>1.017690732872153</v>
       </c>
       <c r="E24">
-        <v>1.027929845792169</v>
+        <v>1.002921987846566</v>
       </c>
       <c r="F24">
-        <v>1.046525685629995</v>
+        <v>1.015582052281016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037672319210626</v>
+        <v>1.044530676435516</v>
       </c>
       <c r="J24">
-        <v>1.034058039242682</v>
+        <v>1.022407819005263</v>
       </c>
       <c r="K24">
-        <v>1.041900519906023</v>
+        <v>1.03141414212064</v>
       </c>
       <c r="L24">
-        <v>1.031328313073823</v>
+        <v>1.016897983680539</v>
       </c>
       <c r="M24">
-        <v>1.049859422316649</v>
+        <v>1.029340945868236</v>
       </c>
       <c r="N24">
-        <v>1.015353376437304</v>
+        <v>1.01135650792381</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029203582319654</v>
+        <v>1.00174290755219</v>
       </c>
       <c r="D25">
-        <v>1.039701810813525</v>
+        <v>1.023342975380496</v>
       </c>
       <c r="E25">
-        <v>1.029101315281616</v>
+        <v>1.008405693488128</v>
       </c>
       <c r="F25">
-        <v>1.048085222030495</v>
+        <v>1.022873557168018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038050131023289</v>
+        <v>1.046988705309187</v>
       </c>
       <c r="J25">
-        <v>1.034836395453075</v>
+        <v>1.026211757936828</v>
       </c>
       <c r="K25">
-        <v>1.042742128092722</v>
+        <v>1.03558941520758</v>
       </c>
       <c r="L25">
-        <v>1.03217504651884</v>
+        <v>1.020874908377851</v>
       </c>
       <c r="M25">
-        <v>1.05109963636027</v>
+        <v>1.035126872211087</v>
       </c>
       <c r="N25">
-        <v>1.015612740979615</v>
+        <v>1.012629030495903</v>
       </c>
     </row>
   </sheetData>
